--- a/2023MCMICMC论文表格.xlsx
+++ b/2023MCMICMC论文表格.xlsx
@@ -1128,6 +1128,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>论文中所有矢量图示，均为</t>
     </r>
     <r>
@@ -2050,7 +2056,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2072,12 +2078,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2085,9 +2085,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2545,31 +2542,31 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.6" spans="1:3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" ht="13.9" spans="1:3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="44"/>
+      <c r="C2" s="41"/>
     </row>
     <row r="3" ht="14.65" spans="1:3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="44"/>
+      <c r="C3" s="41"/>
     </row>
     <row r="4" ht="14.25"/>
   </sheetData>
@@ -2590,496 +2587,496 @@
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" ht="14.25" spans="1:9">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="26" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="20"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" ht="15.35" spans="1:9">
-      <c r="A3" s="7">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="26">
         <v>0.42723056770196</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="27">
         <v>0.653628769028689</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="27">
         <v>0.418203756388041</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="27">
         <v>0.225768619230377</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="28">
         <v>0.0950294763401361</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="27">
         <v>0.308268513377763</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="27">
         <v>0.0573360970313773</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="27">
         <v>0.827786660780405</v>
       </c>
     </row>
     <row r="4" ht="15.35" spans="1:9">
-      <c r="A4" s="7">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="26">
         <v>10.388977370083</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="27">
         <v>3.22319366003395</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="27">
         <v>2.38023199838769</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="27">
         <v>0.372908899413744</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="28">
         <v>0.65206088615632</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="27">
         <v>0.807502870679925</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="27">
         <v>0.211000606714613</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="27">
         <v>0.960640824964493</v>
       </c>
     </row>
     <row r="5" ht="15.35" spans="1:9">
-      <c r="A5" s="7">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="26">
         <v>35.9825368326666</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="27">
         <v>5.99854455952997</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="27">
         <v>4.86891999852088</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="27">
         <v>0.407530926084737</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="28">
         <v>3.5163508864475</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="27">
         <v>1.87519355972857</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="27">
         <v>0.503767167107533</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="27">
         <v>0.942101659954021</v>
       </c>
     </row>
     <row r="6" ht="15.35" spans="1:9">
-      <c r="A6" s="7">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="26">
         <v>24.2460492740812</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="27">
         <v>4.9240277491177</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="27">
         <v>3.81894787063259</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="27">
         <v>0.147443752393829</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="28">
         <v>1.6168948104657</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="27">
         <v>1.27157178738194</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="27">
         <v>0.354239356719841</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="27">
         <v>0.943145633467876</v>
       </c>
     </row>
     <row r="7" ht="15.35" spans="1:9">
-      <c r="A7" s="7">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="26">
         <v>21.6560994419932</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="27">
         <v>4.65361144080522</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="27">
         <v>3.77222448957926</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="27">
         <v>0.394369345086388</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="28">
         <v>1.76027775677602</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="27">
         <v>1.32675459553604</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="27">
         <v>0.368435116137488</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="27">
         <v>0.950772382925112</v>
       </c>
     </row>
     <row r="8" ht="15.35" spans="1:9">
-      <c r="A8" s="7">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="26">
         <v>25.4959164408058</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="27">
         <v>5.04934812038205</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="27">
         <v>3.99367976641066</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="27">
         <v>0.292025058416623</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="28">
         <v>1.87765866962256</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="27">
         <v>1.37027685874883</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="27">
         <v>0.356305955325142</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="27">
         <v>0.947860854893139</v>
       </c>
     </row>
     <row r="9" ht="16.1" spans="1:9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="29">
         <v>13.8710099012058</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="30">
         <v>3.72438047213303</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="30">
         <v>2.13729242996441</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="30">
         <v>0.117207726997114</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="31">
         <v>0.730042406139293</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="30">
         <v>0.85442519048732</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="30">
         <v>0.174411281260676</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="30">
         <v>0.953537932732051</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:9">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="26" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="20"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" ht="15.35" spans="1:9">
-      <c r="A12" s="7">
+      <c r="A12" s="2">
         <v>1</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="26">
         <v>0.1394375</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="27">
         <v>0.373413309885976</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="27">
         <v>0.184724576271186</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="27">
         <v>0.747310009354536</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="28">
         <v>0.384827804582003</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="27">
         <v>0.620344907758581</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="27">
         <v>0.386780834816396</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="27">
         <v>0.302611318046146</v>
       </c>
     </row>
     <row r="13" ht="15.35" spans="1:9">
-      <c r="A13" s="7">
+      <c r="A13" s="2">
         <v>2</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="26">
         <v>2.02684724576271</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="27">
         <v>1.42367385512367</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="27">
         <v>1.00154661016949</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="27">
         <v>0.877657075880664</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="28">
         <v>8.91836139947222</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="27">
         <v>2.98636256999585</v>
       </c>
-      <c r="H13" s="30">
+      <c r="H13" s="27">
         <v>2.15630427265452</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="27">
         <v>0.461677038442109</v>
       </c>
     </row>
     <row r="14" ht="15.35" spans="1:9">
-      <c r="A14" s="7">
+      <c r="A14" s="2">
         <v>3</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="26">
         <v>6.47682966101694</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="27">
         <v>2.54496162270022</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="27">
         <v>1.93</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="27">
         <v>0.893356010750028</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="28">
         <v>29.9229023192417</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="27">
         <v>5.47018302429102</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="27">
         <v>4.48120478926433</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="27">
         <v>0.507305604705354</v>
       </c>
     </row>
     <row r="15" ht="15.35" spans="1:9">
-      <c r="A15" s="7">
+      <c r="A15" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="26">
         <v>4.58645211864406</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="27">
         <v>2.14160036389707</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="27">
         <v>1.49927966101694</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="27">
         <v>0.838728018577586</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="28">
         <v>18.4181856201606</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="27">
         <v>4.29164136667553</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="27">
         <v>3.24789012741028</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="27">
         <v>0.352367099376312</v>
       </c>
     </row>
     <row r="16" ht="15.35" spans="1:9">
-      <c r="A16" s="7">
+      <c r="A16" s="2">
         <v>5</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="26">
         <v>4.2666002118644</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="27">
         <v>2.06557503176825</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="27">
         <v>1.53811440677966</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="27">
         <v>0.880681011486519</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="28">
         <v>18.5073738739198</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="27">
         <v>4.302019743553</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="27">
         <v>3.47180328384914</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="27">
         <v>0.482426048605108</v>
       </c>
     </row>
     <row r="17" ht="15.35" spans="1:9">
-      <c r="A17" s="7">
+      <c r="A17" s="2">
         <v>6</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="26">
         <v>4.80756186440678</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="27">
         <v>2.19261530242009</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="27">
         <v>1.59580508474576</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="27">
         <v>0.866502804948623</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="28">
         <v>20.5756996140895</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="27">
         <v>4.53604448987105</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="27">
         <v>3.55387677813056</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="27">
         <v>0.428650475610763</v>
       </c>
     </row>
     <row r="18" ht="16.1" spans="1:9">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="29">
         <v>2.39876906779661</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="30">
         <v>1.54879600586927</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="30">
         <v>0.845</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="30">
         <v>0.84733521114529</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="31">
         <v>11.3648470752104</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="30">
         <v>3.37117888508018</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="30">
         <v>1.70321575883526</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="30">
         <v>0.276707373629438</v>
       </c>
     </row>
@@ -3109,194 +3106,194 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85"/>
   <cols>
-    <col min="1" max="1" width="25.5486725663717" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.1946902654867" style="16" customWidth="1"/>
-    <col min="3" max="3" width="7.53097345132743" style="16" customWidth="1"/>
-    <col min="4" max="4" width="29.5840707964602" style="16" customWidth="1"/>
-    <col min="5" max="5" width="21.787610619469" style="16" customWidth="1"/>
-    <col min="6" max="9" width="7.53097345132743" style="16" customWidth="1"/>
-    <col min="10" max="11" width="7.90265486725664" style="16" customWidth="1"/>
-    <col min="12" max="19" width="9.02654867256637" style="16"/>
-    <col min="20" max="27" width="9.02654867256637" style="17"/>
-    <col min="28" max="16384" width="9.02654867256637" style="16"/>
+    <col min="1" max="1" width="25.5486725663717" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.1946902654867" style="13" customWidth="1"/>
+    <col min="3" max="3" width="7.53097345132743" style="13" customWidth="1"/>
+    <col min="4" max="4" width="29.5840707964602" style="13" customWidth="1"/>
+    <col min="5" max="5" width="21.787610619469" style="13" customWidth="1"/>
+    <col min="6" max="9" width="7.53097345132743" style="13" customWidth="1"/>
+    <col min="10" max="11" width="7.90265486725664" style="13" customWidth="1"/>
+    <col min="12" max="19" width="9.02654867256637" style="13"/>
+    <col min="20" max="27" width="9.02654867256637" style="14"/>
+    <col min="28" max="16384" width="9.02654867256637" style="13"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1" spans="1:9">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" ht="13.5" customHeight="1" spans="1:9">
-      <c r="A3" s="21">
+      <c r="A3" s="18">
         <v>45061</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="19">
         <v>695</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="22">
-        <v>18334</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1874</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="D3" s="19">
+        <v>17834</v>
+      </c>
+      <c r="E3" s="19">
+        <v>1754</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="17"/>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="17"/>
-      <c r="B5" s="7">
+      <c r="A5" s="14"/>
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="2">
         <v>7</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="2">
         <v>3</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="7">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="2">
         <v>18</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="2">
         <v>9</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="2">
         <v>5</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" ht="14.6" spans="1:9">
-      <c r="A9" s="8">
+      <c r="A9" s="4">
         <v>0.1142</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="4">
         <v>0.1142</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="4">
         <v>0.0751</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="4">
         <v>0.0794</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="4">
         <v>0.1142</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" ht="14.25"/>
   </sheetData>
@@ -3325,90 +3322,90 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:9">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="12">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="12">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="2" ht="13.85" spans="1:9">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="11">
         <v>0.1334</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="11">
         <v>4.9177</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="11">
         <v>15.3803</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="11">
         <v>21.7288</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="11">
         <v>28.9516</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="11">
         <v>16.2925</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="11">
         <v>2.3451</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="11">
         <f>SUM(B2:H2)</f>
         <v>89.7494</v>
       </c>
     </row>
     <row r="3" ht="14.6" spans="1:9">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="12">
         <v>0.17</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="12">
         <v>4.73</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="12">
         <v>16.24</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>30.72</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="12">
         <v>27.86</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="12">
         <v>14.03</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="12">
         <v>6.08</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="12">
         <f>SUM(B3:H3)</f>
         <v>99.83</v>
       </c>
@@ -3431,46 +3428,46 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="6" width="9.02654867256637" style="10"/>
+    <col min="1" max="6" width="9.02654867256637" style="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:6">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="12">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.6" spans="1:6">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3514,162 +3511,162 @@
       </c>
     </row>
     <row r="2" ht="13.85" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="3" ht="13.85" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="2">
         <v>3.7</v>
       </c>
     </row>
     <row r="4" ht="13.85" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="5" ht="13.85" spans="1:4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="6" ht="13.85" spans="1:4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" ht="13.85" spans="1:4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="8" ht="13.85" spans="1:4">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="9" ht="13.85" spans="1:4">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.85" spans="1:4">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="2" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="11" ht="13.85" spans="1:4">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="2">
         <v>1.4</v>
       </c>
     </row>
     <row r="12" ht="14.6" spans="1:4">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" ht="14.25" spans="3:4">
       <c r="C13"/>
       <c r="D13"/>
     </row>
     <row r="14" ht="13.85" spans="3:4">
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3680,13 +3677,13 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9.24778761061947" customWidth="1"/>
     <col min="2" max="2" width="49.3008849557522" customWidth="1"/>
@@ -3732,6 +3729,7 @@
         <v>208</v>
       </c>
     </row>
+    <row r="6" ht="14.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3749,8 +3747,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="4" width="18.5221238938053" style="44" customWidth="1"/>
-    <col min="5" max="16384" width="9.02654867256637" style="44"/>
+    <col min="1" max="4" width="18.5221238938053" style="41" customWidth="1"/>
+    <col min="5" max="16384" width="9.02654867256637" style="41"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
@@ -3768,58 +3766,58 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7">
+      <c r="A2" s="2">
         <v>207</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="49">
         <v>44573</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7">
+      <c r="A3" s="2">
         <v>314</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3" s="49">
         <v>44680</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7">
+      <c r="A4" s="2">
         <v>525</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="49">
         <v>44891</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="14.6" spans="1:4">
-      <c r="A5" s="8">
+      <c r="A5" s="4">
         <v>545</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="50">
         <v>44911</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3841,13 +3839,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.24778761061947" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.02654867256637" style="7"/>
-    <col min="3" max="3" width="11.3097345132743" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.7610619469027" style="7" customWidth="1"/>
-    <col min="5" max="5" width="19.9557522123894" style="7" customWidth="1"/>
-    <col min="6" max="6" width="9.02654867256637" style="7"/>
-    <col min="7" max="16384" width="9.02654867256637" style="44"/>
+    <col min="1" max="1" width="9.24778761061947" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.02654867256637" style="2"/>
+    <col min="3" max="3" width="11.3097345132743" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.7610619469027" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.9557522123894" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.02654867256637" style="2"/>
+    <col min="7" max="16384" width="9.02654867256637" style="41"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:6">
@@ -3871,122 +3869,122 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7">
+      <c r="A2" s="2">
         <v>239</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="2">
         <v>277471</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="2">
         <v>3249</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="47">
         <v>-0.022787</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="2">
         <v>3249</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7">
+      <c r="A3" s="2">
         <v>240</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="2">
         <v>261521</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="2">
         <v>10343</v>
       </c>
-      <c r="E3" s="50">
+      <c r="E3" s="47">
         <v>0.02784</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7">
+      <c r="A4" s="2">
         <v>500</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="2">
         <v>27502</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="2">
         <v>3667</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="47">
         <v>0.036272</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="2">
         <v>3667</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7">
+      <c r="A5" s="2">
         <v>501</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="2">
         <v>27670</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="2">
         <v>2640</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="47">
         <v>-0.037926</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7">
+      <c r="A6" s="2">
         <v>529</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="2">
         <v>2569</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="2">
         <v>2405</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="47">
         <v>0.838601</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="2">
         <v>2569</v>
       </c>
     </row>
     <row r="7" ht="14.6" spans="1:6">
-      <c r="A7" s="8">
+      <c r="A7" s="4">
         <v>530</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="4">
         <v>22628</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="4">
         <v>2200</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="48">
         <v>-0.838937</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4002,7 +4000,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -4016,104 +4014,104 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.65" spans="1:5">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="43" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" ht="13.85" spans="1:5">
-      <c r="A2" s="47">
+      <c r="A2" s="44">
         <v>44927</v>
       </c>
-      <c r="B2" s="48">
+      <c r="B2" s="45">
         <v>561</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="45">
         <v>22072</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="45">
         <v>2132</v>
       </c>
     </row>
     <row r="3" ht="13.85" spans="1:5">
-      <c r="A3" s="47">
+      <c r="A3" s="44">
         <v>44928</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="45">
         <v>562</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="45">
         <v>22252</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="45">
         <v>2094</v>
       </c>
     </row>
     <row r="4" ht="13.85" spans="1:5">
-      <c r="A4" s="47">
+      <c r="A4" s="44">
         <v>44929</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="45">
         <v>563</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="45">
         <v>22018</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="45">
         <v>2072</v>
       </c>
     </row>
     <row r="5" ht="13.85" spans="1:5">
-      <c r="A5" s="47">
+      <c r="A5" s="44">
         <v>44930</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="45">
         <v>564</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="45">
         <v>22394</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="45">
         <v>2207</v>
       </c>
     </row>
     <row r="6" ht="14.6" spans="1:5">
-      <c r="A6" s="49">
+      <c r="A6" s="46">
         <v>44931</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="40">
         <v>565</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="40">
         <v>22283</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="40">
         <v>2078</v>
       </c>
     </row>
@@ -4135,36 +4133,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.85" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="2" width="9.49557522123894" style="7" customWidth="1"/>
-    <col min="3" max="3" width="11.6814159292035" style="7" customWidth="1"/>
-    <col min="4" max="4" width="20.9115044247788" style="7" customWidth="1"/>
-    <col min="5" max="6" width="9.02654867256637" style="7"/>
-    <col min="7" max="7" width="9.02654867256637" style="44"/>
-    <col min="8" max="8" width="7.31858407079646" style="44" customWidth="1"/>
-    <col min="9" max="10" width="9.24778761061947" style="44" customWidth="1"/>
-    <col min="11" max="11" width="6.53097345132743" style="44" customWidth="1"/>
-    <col min="12" max="16" width="8.53097345132743" style="44" customWidth="1"/>
-    <col min="17" max="17" width="3.79646017699115" style="44" customWidth="1"/>
-    <col min="18" max="16384" width="9.02654867256637" style="44"/>
+    <col min="1" max="2" width="9.49557522123894" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.6814159292035" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.9115044247788" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9.02654867256637" style="2"/>
+    <col min="7" max="7" width="9.02654867256637" style="41"/>
+    <col min="8" max="8" width="7.31858407079646" style="41" customWidth="1"/>
+    <col min="9" max="10" width="9.24778761061947" style="41" customWidth="1"/>
+    <col min="11" max="11" width="6.53097345132743" style="41" customWidth="1"/>
+    <col min="12" max="16" width="8.53097345132743" style="41" customWidth="1"/>
+    <col min="17" max="17" width="3.79646017699115" style="41" customWidth="1"/>
+    <col min="18" max="16384" width="9.02654867256637" style="41"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:18">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H1"/>
@@ -4180,22 +4178,22 @@
       <c r="R1"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="7">
+      <c r="A2" s="2">
         <v>239</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="2">
         <v>277471</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="2">
         <v>3249</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="2">
         <v>3249</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="2">
         <v>9249</v>
       </c>
       <c r="H2"/>
@@ -4211,22 +4209,22 @@
       <c r="R2"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="7">
+      <c r="A3" s="2">
         <v>500</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="2">
         <v>27502</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="2">
         <v>3667</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="2">
         <v>3667</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="2">
         <v>2667</v>
       </c>
       <c r="H3"/>
@@ -4242,22 +4240,22 @@
       <c r="R3"/>
     </row>
     <row r="4" ht="14.6" spans="1:6">
-      <c r="A4" s="8">
+      <c r="A4" s="4">
         <v>529</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="4">
         <v>2569</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="4">
         <v>2405</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="4">
         <v>2569</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="4">
         <v>25569</v>
       </c>
     </row>
@@ -4283,96 +4281,96 @@
       <c r="A1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" ht="13.85" spans="1:10">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="2">
         <v>281</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="39">
         <v>1</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="39">
         <v>2</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="39">
         <v>18</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="39">
         <v>44</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="39">
         <v>26</v>
       </c>
-      <c r="H2" s="42">
+      <c r="H2" s="39">
         <v>26</v>
       </c>
-      <c r="I2" s="42">
+      <c r="I2" s="39">
         <v>9</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="2">
         <f>SUM(C2:I2)</f>
         <v>126</v>
       </c>
     </row>
     <row r="3" ht="14.6" spans="1:10">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="4">
         <v>281</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="40">
         <v>1</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="40">
         <v>2</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="40">
         <v>18</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="40">
         <v>44</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="40">
         <v>26</v>
       </c>
-      <c r="H3" s="43">
+      <c r="H3" s="40">
         <v>9</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="40">
         <v>1</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="4">
         <f>SUM(C3:I3)</f>
         <v>101</v>
       </c>
@@ -4399,53 +4397,53 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:5">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="35" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" ht="13.85" spans="1:5">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="36">
         <v>2586</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="36">
         <v>29849352</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="36">
         <v>5463</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="36">
         <v>0.9957</v>
       </c>
     </row>
     <row r="3" ht="14.6" spans="1:5">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="40">
+      <c r="B3" s="37">
         <v>97</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="37">
         <v>38334</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="37">
         <v>196</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="37">
         <v>0.9959</v>
       </c>
     </row>
@@ -4472,16 +4470,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:6">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -4492,49 +4490,49 @@
       </c>
     </row>
     <row r="2" ht="13.85" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="7">
-        <v>18334</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="2">
+        <v>17834</v>
+      </c>
+      <c r="C2" s="2">
         <v>5463</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="33">
         <f>C2/SQRT(472)</f>
         <v>251.454956878927</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="33">
         <f>B2-2*D2</f>
-        <v>17831.0900862421</v>
-      </c>
-      <c r="F2" s="36">
+        <v>17331.0900862421</v>
+      </c>
+      <c r="F2" s="33">
         <f>B2+2*D3</f>
-        <v>18352.0432625108</v>
+        <v>17852.0432625108</v>
       </c>
     </row>
     <row r="3" ht="14.6" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="8">
-        <v>1874</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="B3" s="4">
+        <v>1754</v>
+      </c>
+      <c r="C3" s="4">
         <v>196</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="34">
         <f>C3/SQRT(472)</f>
         <v>9.02163125540357</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="34">
         <f>B3-2*D3</f>
-        <v>1855.95673748919</v>
-      </c>
-      <c r="F3" s="37">
+        <v>1735.95673748919</v>
+      </c>
+      <c r="F3" s="34">
         <f>B3+2*D3</f>
-        <v>1892.04326251081</v>
+        <v>1772.04326251081</v>
       </c>
     </row>
     <row r="4" ht="14.25"/>
@@ -4562,282 +4560,282 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" ht="13.85" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="2">
         <v>274</v>
       </c>
     </row>
     <row r="3" ht="13.85" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="2">
         <v>110</v>
       </c>
     </row>
     <row r="4" ht="13.85" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="5" ht="13.85" spans="1:4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="13.85" spans="1:4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="7" ht="13.85" spans="1:4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="8" ht="13.85" spans="1:4">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="9" ht="13.85" spans="1:4">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="10" ht="13.85" spans="1:4">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="11" ht="13.85" spans="1:4">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="12" ht="13.85" spans="1:4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="13" ht="13.85" spans="1:4">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="14" ht="13.85" spans="1:4">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="15" ht="13.85" spans="1:4">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="16" ht="13.85" spans="1:4">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="17" ht="13.85" spans="1:4">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="18" ht="13.85" spans="1:4">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="19" ht="13.85" spans="1:4">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="20" ht="14.6" spans="1:4">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="4">
         <v>1</v>
       </c>
     </row>
